--- a/src/test/resources/erillishaku_oidilla.xlsx
+++ b/src/test/resources/erillishaku_oidilla.xlsx
@@ -50,10 +50,10 @@
     <t>Tuomas</t>
   </si>
   <si>
-    <t>010101-123N</t>
-  </si>
-  <si>
-    <t>1.1.1901</t>
+    <t>1.1.1980</t>
+  </si>
+  <si>
+    <t>hakija1</t>
   </si>
   <si>
     <t>HYVAKSYTTY</t>
@@ -69,8 +69,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt formatCode="GENERAL" numFmtId="164"/>
+    <numFmt formatCode="@" numFmtId="165"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -145,9 +146,10 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="165" xfId="0"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
@@ -169,12 +171,12 @@
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <pane activePane="topLeft" topLeftCell="A1" xSplit="0" ySplit="-1"/>
-      <selection activeCell="C2" activeCellId="0" pane="topLeft" sqref="C2"/>
+      <selection activeCell="D3" activeCellId="0" pane="topLeft" sqref="D3"/>
       <selection activeCell="A1" activeCellId="0" pane="bottomLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.6078431372549"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.7058823529412"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.2" outlineLevel="0" r="1">
@@ -213,13 +215,13 @@
       <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="1"/>
+      <c r="D2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
         <v>13</v>
       </c>

--- a/src/test/resources/erillishaku_oidilla.xlsx
+++ b/src/test/resources/erillishaku_oidilla.xlsx
@@ -1,17 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
+  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="40" windowWidth="28500" windowHeight="19980"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Sukunimi</t>
   </si>
@@ -51,7 +59,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="10"/>
         <rFont val="Calibri"/>
@@ -74,15 +82,15 @@
   <si>
     <t>JULKAISTAVISSA</t>
   </si>
+  <si>
+    <t>EI_TEHTY</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -90,16 +98,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="15"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
@@ -109,7 +107,7 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="11"/>
       <color indexed="10"/>
       <name val="Calibri"/>
@@ -148,52 +146,97 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium4"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="001FB714"/>
+      <rgbColor rgb="000000D4"/>
+      <rgbColor rgb="00FCF305"/>
+      <rgbColor rgb="00F20884"/>
+      <rgbColor rgb="0000ABEA"/>
+      <rgbColor rgb="00900000"/>
+      <rgbColor rgb="00006411"/>
+      <rgbColor rgb="00000090"/>
+      <rgbColor rgb="0090713A"/>
+      <rgbColor rgb="004600A5"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="0063AAFE"/>
+      <rgbColor rgb="00DD2D32"/>
+      <rgbColor rgb="00FFF58C"/>
+      <rgbColor rgb="004EE257"/>
+      <rgbColor rgb="006711FF"/>
+      <rgbColor rgb="00FEA746"/>
+      <rgbColor rgb="00865357"/>
+      <rgbColor rgb="00A2BD90"/>
+      <rgbColor rgb="0063AAFE"/>
+      <rgbColor rgb="00DD2D32"/>
+      <rgbColor rgb="00FFF58C"/>
+      <rgbColor rgb="004EE257"/>
+      <rgbColor rgb="006711FF"/>
+      <rgbColor rgb="00FEA746"/>
+      <rgbColor rgb="00865357"/>
+      <rgbColor rgb="00A2BD90"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
   <a:themeElements>
     <a:clrScheme name="Blank">
       <a:dk1>
@@ -385,7 +428,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -394,7 +437,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -403,7 +446,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -412,7 +455,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="40000" dist="20000" dir="5400000">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -421,7 +464,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="40000" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -430,7 +473,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="40000" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -542,8 +585,8 @@
     <a:spDef>
       <a:spPr>
         <a:blipFill rotWithShape="1">
-          <a:blip r:embed="rId1"/>
-          <a:srcRect l="0" t="0" r="0" b="0"/>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:srcRect/>
           <a:tile tx="0" ty="0" sx="100000" sy="100000" flip="none" algn="tl"/>
         </a:blipFill>
         <a:ln w="12700" cap="flat">
@@ -551,14 +594,14 @@
           <a:miter lim="400000"/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="50000"/>
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -577,7 +620,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1200" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -585,7 +628,7 @@
               <a:srgbClr val="FFFFFF"/>
             </a:solidFill>
             <a:effectLst>
-              <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="25400" dist="23998" dir="2700000">
+              <a:outerShdw blurRad="25400" dist="23998" dir="2700000" rotWithShape="0">
                 <a:srgbClr val="000000">
                   <a:alpha val="31034"/>
                 </a:srgbClr>
@@ -613,7 +656,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -639,7 +682,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -665,7 +708,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -691,7 +734,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -717,7 +760,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -743,7 +786,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -769,7 +812,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -795,7 +838,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -821,7 +864,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -834,9 +877,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -852,7 +901,7 @@
         </a:ln>
         <a:effectLst/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -871,7 +920,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -897,7 +946,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -923,7 +972,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -949,7 +998,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -975,7 +1024,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1001,7 +1050,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1027,7 +1076,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1053,7 +1102,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1079,7 +1128,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1105,7 +1154,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1118,9 +1167,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1133,7 +1188,7 @@
         </a:ln>
         <a:effectLst/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1152,7 +1207,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1182,7 +1237,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1208,7 +1263,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1234,7 +1289,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1260,7 +1315,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1286,7 +1341,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1312,7 +1367,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1338,7 +1393,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1364,7 +1419,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1390,7 +1445,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1403,100 +1458,100 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7" defaultRowHeight="12.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="7" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="9.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9.375" style="1" customWidth="1"/>
+    <col min="1" max="10" width="9.375" style="1" customWidth="1"/>
     <col min="11" max="256" width="7" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:10" ht="17" customHeight="1">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s" s="2">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s" s="2">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s" s="2">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" ht="17" customHeight="1">
-      <c r="A2" t="s" s="2">
+    <row r="2" spans="1:10" ht="17" customHeight="1">
+      <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="s" s="2">
+      <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="3"/>
-      <c r="D2" t="s" s="2">
+      <c r="D2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s" s="2">
+      <c r="E2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" t="s" s="2">
+      <c r="F2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s" s="2">
+      <c r="G2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H2" t="s" s="2">
+      <c r="H2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I2" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="J2" t="s" s="2">
+      <c r="I2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" ht="19" customHeight="1">
+    <row r="3" spans="1:10" ht="19" customHeight="1">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -1508,7 +1563,7 @@
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
     </row>
-    <row r="4" ht="19" customHeight="1">
+    <row r="4" spans="1:10" ht="19" customHeight="1">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -1520,7 +1575,7 @@
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
     </row>
-    <row r="5" ht="19" customHeight="1">
+    <row r="5" spans="1:10" ht="19" customHeight="1">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -1532,7 +1587,7 @@
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
     </row>
-    <row r="6" ht="19" customHeight="1">
+    <row r="6" spans="1:10" ht="19" customHeight="1">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -1544,7 +1599,7 @@
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
     </row>
-    <row r="7" ht="19" customHeight="1">
+    <row r="7" spans="1:10" ht="19" customHeight="1">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -1556,7 +1611,7 @@
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
     </row>
-    <row r="8" ht="19" customHeight="1">
+    <row r="8" spans="1:10" ht="19" customHeight="1">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -1568,7 +1623,7 @@
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
     </row>
-    <row r="9" ht="19" customHeight="1">
+    <row r="9" spans="1:10" ht="19" customHeight="1">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -1580,7 +1635,7 @@
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
     </row>
-    <row r="10" ht="19" customHeight="1">
+    <row r="10" spans="1:10" ht="19" customHeight="1">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -1594,12 +1649,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" location="" tooltip="" display=""/>
+    <hyperlink ref="D2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
   </headerFooter>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/src/test/resources/erillishaku_oidilla.xlsx
+++ b/src/test/resources/erillishaku_oidilla.xlsx
@@ -1,25 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
-  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="28500" windowHeight="19980"/>
+    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
   <si>
     <t>Sukunimi</t>
   </si>
@@ -36,7 +28,13 @@
     <t>Syntymäaika</t>
   </si>
   <si>
+    <t>Sukupuoli</t>
+  </si>
+  <si>
     <t>Hakija-oid</t>
+  </si>
+  <si>
+    <t>Äidinkieli</t>
   </si>
   <si>
     <t>Hakemuksentila</t>
@@ -59,7 +57,7 @@
   <si>
     <r>
       <rPr>
-        <u/>
+        <u val="single"/>
         <sz val="11"/>
         <color indexed="10"/>
         <rFont val="Calibri"/>
@@ -71,26 +69,35 @@
     <t>1.1.1980</t>
   </si>
   <si>
+    <t>MIES</t>
+  </si>
+  <si>
     <t>hakija1</t>
   </si>
   <si>
+    <t>FI</t>
+  </si>
+  <si>
     <t>HYVAKSYTTY</t>
   </si>
   <si>
     <t>KESKEN</t>
   </si>
   <si>
+    <t>EI_TEHTY</t>
+  </si>
+  <si>
     <t>JULKAISTAVISSA</t>
-  </si>
-  <si>
-    <t>EI_TEHTY</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="0" formatCode="General"/>
+  </numFmts>
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -99,7 +106,17 @@
     <font>
       <sz val="12"/>
       <color indexed="8"/>
-      <name val="Calibri"/>
+      <name val="Helvetica"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color indexed="8"/>
+      <name val="Verdana"/>
     </font>
     <font>
       <sz val="11"/>
@@ -107,9 +124,14 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <u/>
+      <u val="single"/>
       <sz val="11"/>
       <color indexed="10"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -146,97 +168,52 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium4"/>
+  <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFAAAAAA"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="001FB714"/>
-      <rgbColor rgb="000000D4"/>
-      <rgbColor rgb="00FCF305"/>
-      <rgbColor rgb="00F20884"/>
-      <rgbColor rgb="0000ABEA"/>
-      <rgbColor rgb="00900000"/>
-      <rgbColor rgb="00006411"/>
-      <rgbColor rgb="00000090"/>
-      <rgbColor rgb="0090713A"/>
-      <rgbColor rgb="004600A5"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="0063AAFE"/>
-      <rgbColor rgb="00DD2D32"/>
-      <rgbColor rgb="00FFF58C"/>
-      <rgbColor rgb="004EE257"/>
-      <rgbColor rgb="006711FF"/>
-      <rgbColor rgb="00FEA746"/>
-      <rgbColor rgb="00865357"/>
-      <rgbColor rgb="00A2BD90"/>
-      <rgbColor rgb="0063AAFE"/>
-      <rgbColor rgb="00DD2D32"/>
-      <rgbColor rgb="00FFF58C"/>
-      <rgbColor rgb="004EE257"/>
-      <rgbColor rgb="006711FF"/>
-      <rgbColor rgb="00FEA746"/>
-      <rgbColor rgb="00865357"/>
-      <rgbColor rgb="00A2BD90"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffff0000"/>
+      <rgbColor rgb="ff00ff00"/>
+      <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="ffffff00"/>
+      <rgbColor rgb="ffff00ff"/>
+      <rgbColor rgb="ff00ffff"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="ff0000ff"/>
     </indexedColors>
   </colors>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
   <a:themeElements>
     <a:clrScheme name="Blank">
       <a:dk1>
@@ -428,7 +405,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -437,7 +414,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -446,7 +423,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -455,7 +432,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="40000" dist="20000" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -464,7 +441,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="40000" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -473,7 +450,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="40000" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -585,8 +562,8 @@
     <a:spDef>
       <a:spPr>
         <a:blipFill rotWithShape="1">
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-          <a:srcRect/>
+          <a:blip r:embed="rId1"/>
+          <a:srcRect l="0" t="0" r="0" b="0"/>
           <a:tile tx="0" ty="0" sx="100000" sy="100000" flip="none" algn="tl"/>
         </a:blipFill>
         <a:ln w="12700" cap="flat">
@@ -594,14 +571,14 @@
           <a:miter lim="400000"/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
             <a:srgbClr val="000000">
               <a:alpha val="50000"/>
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -620,7 +597,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1200" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -628,7 +605,7 @@
               <a:srgbClr val="FFFFFF"/>
             </a:solidFill>
             <a:effectLst>
-              <a:outerShdw blurRad="25400" dist="23998" dir="2700000" rotWithShape="0">
+              <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="25400" dist="23998" dir="2700000">
                 <a:srgbClr val="000000">
                   <a:alpha val="31034"/>
                 </a:srgbClr>
@@ -656,7 +633,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -682,7 +659,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -708,7 +685,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -734,7 +711,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -760,7 +737,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -786,7 +763,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -812,7 +789,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -838,7 +815,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -864,7 +841,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -877,15 +854,9 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -901,7 +872,7 @@
         </a:ln>
         <a:effectLst/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -920,7 +891,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -946,7 +917,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -972,7 +943,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -998,7 +969,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1024,7 +995,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1050,7 +1021,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1076,7 +1047,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1102,7 +1073,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1128,7 +1099,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1154,7 +1125,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1167,15 +1138,9 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1188,7 +1153,7 @@
         </a:ln>
         <a:effectLst/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1207,7 +1172,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1237,7 +1202,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1263,7 +1228,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1289,7 +1254,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1315,7 +1280,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1341,7 +1306,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1367,7 +1332,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1393,7 +1358,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1419,7 +1384,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1445,7 +1410,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1458,100 +1423,114 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IV10"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="7" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="7" defaultRowHeight="12.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="10" width="9.375" style="1" customWidth="1"/>
-    <col min="11" max="256" width="7" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.0391" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="9.375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="9.375" style="1" customWidth="1"/>
+    <col min="13" max="256" width="7" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="17" customHeight="1">
-      <c r="A1" s="2" t="s">
+    <row r="1" ht="17" customHeight="1">
+      <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s" s="2">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s" s="2">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s" s="2">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" t="s" s="2">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" t="s" s="2">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" t="s" s="2">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" t="s" s="2">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" t="s" s="2">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" t="s" s="2">
         <v>9</v>
       </c>
+      <c r="K1" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s" s="2">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" ht="17" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>11</v>
+    <row r="2" ht="17" customHeight="1">
+      <c r="A2" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>13</v>
       </c>
       <c r="C2" s="3"/>
-      <c r="D2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="D2" t="s" s="2">
         <v>14</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="E2" t="s" s="2">
         <v>15</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="F2" t="s" s="2">
         <v>16</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="G2" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="H2" t="s" s="2">
         <v>18</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>17</v>
+      <c r="I2" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K2" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="L2" t="s" s="2">
+        <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="19" customHeight="1">
+    <row r="3" ht="19" customHeight="1">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -1562,8 +1541,10 @@
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
     </row>
-    <row r="4" spans="1:10" ht="19" customHeight="1">
+    <row r="4" ht="19" customHeight="1">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -1574,8 +1555,10 @@
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
     </row>
-    <row r="5" spans="1:10" ht="19" customHeight="1">
+    <row r="5" ht="19" customHeight="1">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -1586,8 +1569,10 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
     </row>
-    <row r="6" spans="1:10" ht="19" customHeight="1">
+    <row r="6" ht="19" customHeight="1">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -1598,8 +1583,10 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
     </row>
-    <row r="7" spans="1:10" ht="19" customHeight="1">
+    <row r="7" ht="19" customHeight="1">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -1610,8 +1597,10 @@
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
     </row>
-    <row r="8" spans="1:10" ht="19" customHeight="1">
+    <row r="8" ht="19" customHeight="1">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -1622,8 +1611,10 @@
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
     </row>
-    <row r="9" spans="1:10" ht="19" customHeight="1">
+    <row r="9" ht="19" customHeight="1">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -1634,8 +1625,10 @@
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
     </row>
-    <row r="10" spans="1:10" ht="19" customHeight="1">
+    <row r="10" ht="19" customHeight="1">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -1646,20 +1639,17 @@
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D2" r:id="rId1" location="" tooltip="" display=""/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
   </headerFooter>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/src/test/resources/erillishaku_oidilla.xlsx
+++ b/src/test/resources/erillishaku_oidilla.xlsx
@@ -1,17 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27011"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/petur1/git/valintaperusteet/valintalaskentakoostepalvelu/src/test/resources/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="21520" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Sukunimi</t>
   </si>
@@ -57,7 +73,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="10"/>
         <rFont val="Calibri"/>
@@ -89,15 +105,18 @@
   <si>
     <t>JULKAISTAVISSA</t>
   </si>
+  <si>
+    <t>Hyväksytty Ehdollisesti</t>
+  </si>
+  <si>
+    <t>Ei</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -105,16 +124,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Verdana"/>
-    </font>
-    <font>
-      <sz val="15"/>
       <color indexed="8"/>
       <name val="Verdana"/>
     </font>
@@ -124,7 +133,7 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="11"/>
       <color indexed="10"/>
       <name val="Calibri"/>
@@ -168,52 +177,104 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="001FB714"/>
+      <rgbColor rgb="000000D4"/>
+      <rgbColor rgb="00FCF305"/>
+      <rgbColor rgb="00F20884"/>
+      <rgbColor rgb="0000ABEA"/>
+      <rgbColor rgb="00900000"/>
+      <rgbColor rgb="00006411"/>
+      <rgbColor rgb="00000090"/>
+      <rgbColor rgb="0090713A"/>
+      <rgbColor rgb="004600A5"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="0063AAFE"/>
+      <rgbColor rgb="00DD2D32"/>
+      <rgbColor rgb="00FFF58C"/>
+      <rgbColor rgb="004EE257"/>
+      <rgbColor rgb="006711FF"/>
+      <rgbColor rgb="00FEA746"/>
+      <rgbColor rgb="00865357"/>
+      <rgbColor rgb="00A2BD90"/>
+      <rgbColor rgb="0063AAFE"/>
+      <rgbColor rgb="00DD2D32"/>
+      <rgbColor rgb="00FFF58C"/>
+      <rgbColor rgb="004EE257"/>
+      <rgbColor rgb="006711FF"/>
+      <rgbColor rgb="00FEA746"/>
+      <rgbColor rgb="00865357"/>
+      <rgbColor rgb="00A2BD90"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
   <a:themeElements>
     <a:clrScheme name="Blank">
       <a:dk1>
@@ -405,7 +466,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -414,7 +475,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -423,7 +484,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -432,7 +493,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="40000" dist="20000" dir="5400000">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -441,7 +502,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="40000" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -450,7 +511,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="40000" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -562,8 +623,8 @@
     <a:spDef>
       <a:spPr>
         <a:blipFill rotWithShape="1">
-          <a:blip r:embed="rId1"/>
-          <a:srcRect l="0" t="0" r="0" b="0"/>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:srcRect/>
           <a:tile tx="0" ty="0" sx="100000" sy="100000" flip="none" algn="tl"/>
         </a:blipFill>
         <a:ln w="12700" cap="flat">
@@ -571,14 +632,14 @@
           <a:miter lim="400000"/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="50000"/>
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -597,7 +658,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1200" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -605,7 +666,7 @@
               <a:srgbClr val="FFFFFF"/>
             </a:solidFill>
             <a:effectLst>
-              <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="25400" dist="23998" dir="2700000">
+              <a:outerShdw blurRad="25400" dist="23998" dir="2700000" rotWithShape="0">
                 <a:srgbClr val="000000">
                   <a:alpha val="31034"/>
                 </a:srgbClr>
@@ -633,7 +694,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -659,7 +720,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -685,7 +746,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -711,7 +772,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -737,7 +798,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -763,7 +824,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -789,7 +850,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -815,7 +876,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -841,7 +902,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -854,9 +915,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -872,7 +939,7 @@
         </a:ln>
         <a:effectLst/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -891,7 +958,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -917,7 +984,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -943,7 +1010,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -969,7 +1036,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -995,7 +1062,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1021,7 +1088,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1047,7 +1114,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1073,7 +1140,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1099,7 +1166,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1125,7 +1192,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1138,9 +1205,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1153,7 +1226,7 @@
         </a:ln>
         <a:effectLst/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1172,7 +1245,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1202,7 +1275,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1228,7 +1301,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1254,7 +1327,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1280,7 +1353,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1306,7 +1379,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1332,7 +1405,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1358,7 +1431,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1384,7 +1457,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1410,7 +1483,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1423,114 +1496,120 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:L10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IW10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7" defaultRowHeight="12.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="7" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.0391" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9.375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="9.375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="9.375" style="1" customWidth="1"/>
-    <col min="13" max="256" width="7" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11" style="1" customWidth="1"/>
+    <col min="5" max="13" width="9.375" style="1" customWidth="1"/>
+    <col min="14" max="257" width="7" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s" s="2">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s" s="2">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s" s="2">
+      <c r="J1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s" s="2">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s" s="2">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" ht="17" customHeight="1">
-      <c r="A2" t="s" s="2">
+    <row r="2" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" t="s" s="2">
+      <c r="B2" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C2" s="3"/>
-      <c r="D2" t="s" s="2">
+      <c r="D2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" t="s" s="2">
+      <c r="E2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" t="s" s="2">
+      <c r="F2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G2" t="s" s="2">
+      <c r="G2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H2" t="s" s="2">
+      <c r="H2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I2" t="s" s="2">
+      <c r="I2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J2" t="s" s="2">
+      <c r="J2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K2" t="s" s="2">
+      <c r="L2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="L2" t="s" s="2">
+      <c r="M2" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" ht="19" customHeight="1">
+    <row r="3" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -1543,8 +1622,9 @@
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
     </row>
-    <row r="4" ht="19" customHeight="1">
+    <row r="4" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -1557,8 +1637,9 @@
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
     </row>
-    <row r="5" ht="19" customHeight="1">
+    <row r="5" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -1571,8 +1652,9 @@
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
     </row>
-    <row r="6" ht="19" customHeight="1">
+    <row r="6" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -1585,8 +1667,9 @@
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
     </row>
-    <row r="7" ht="19" customHeight="1">
+    <row r="7" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -1599,8 +1682,9 @@
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
     </row>
-    <row r="8" ht="19" customHeight="1">
+    <row r="8" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -1613,8 +1697,9 @@
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
     </row>
-    <row r="9" ht="19" customHeight="1">
+    <row r="9" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -1627,8 +1712,9 @@
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
     </row>
-    <row r="10" ht="19" customHeight="1">
+    <row r="10" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -1641,13 +1727,14 @@
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" location="" tooltip="" display=""/>
+    <hyperlink ref="D2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
   </headerFooter>

--- a/src/test/resources/erillishaku_oidilla.xlsx
+++ b/src/test/resources/erillishaku_oidilla.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
   <si>
     <t xml:space="preserve">Sukunimi</t>
   </si>
@@ -64,6 +64,33 @@
     <t xml:space="preserve">Julkaistavissa</t>
   </si>
   <si>
+    <t xml:space="preserve">Asiointikieli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Puhelinnumero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Osoite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Postinumero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Postitoimipaikka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asuinmaa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kansalaisuus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kotikunta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pohjakoulutus maa (toinen aste)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hakkarainen</t>
   </si>
   <si>
@@ -98,16 +125,32 @@
   </si>
   <si>
     <t xml:space="preserve">JULKAISTAVISSA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">045123456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testitie 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Helsinki</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FIN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="0"/>
-    <numFmt numFmtId="166" formatCode="DD/MM/YY"/>
+    <numFmt numFmtId="165" formatCode="@"/>
+    <numFmt numFmtId="166" formatCode="0"/>
+    <numFmt numFmtId="167" formatCode="DD/MM/YY"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -200,7 +243,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -217,15 +260,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -246,19 +293,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:W10"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="R1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="W1" activeCellId="0" sqref="W1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="1" width="10.0074074074074"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="11.8037037037037"/>
-    <col collapsed="false" hidden="false" max="14" min="5" style="1" width="10.0074074074074"/>
-    <col collapsed="false" hidden="false" max="258" min="15" style="1" width="7.44074074074074"/>
-    <col collapsed="false" hidden="false" max="1025" min="259" style="0" width="7.44074074074074"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="1" width="10.6888888888889"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="12.6555555555556"/>
+    <col collapsed="false" hidden="false" max="14" min="5" style="1" width="10.6888888888889"/>
+    <col collapsed="false" hidden="false" max="260" min="15" style="1" width="7.95185185185185"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -304,176 +350,302 @@
       <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="4" t="s">
-        <v>16</v>
+        <v>24</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" s="5" t="n">
+        <v>31</v>
+      </c>
+      <c r="K2" s="6" t="n">
         <v>42538</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>25</v>
+        <v>34</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
     </row>
     <row r="4" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
     </row>
     <row r="5" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="7"/>
     </row>
     <row r="6" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
     </row>
     <row r="7" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="7"/>
     </row>
     <row r="8" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7"/>
+      <c r="W8" s="7"/>
     </row>
     <row r="9" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="7"/>
     </row>
     <row r="10" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/src/test/resources/erillishaku_oidilla.xlsx
+++ b/src/test/resources/erillishaku_oidilla.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="42">
   <si>
     <t xml:space="preserve">Sukunimi</t>
   </si>
@@ -88,6 +88,9 @@
     <t xml:space="preserve">Kotikunta</t>
   </si>
   <si>
+    <t xml:space="preserve">Toisen asteen pohjakoulutus suoritettu</t>
+  </si>
+  <si>
     <t xml:space="preserve">Pohjakoulutus maa (toinen aste)</t>
   </si>
   <si>
@@ -140,6 +143,9 @@
   </si>
   <si>
     <t xml:space="preserve">FIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kyllä</t>
   </si>
 </sst>
 </file>
@@ -293,18 +299,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:W10"/>
+  <dimension ref="A1:X10"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="R1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="W1" activeCellId="0" sqref="W1"/>
+      <selection pane="topLeft" activeCell="W2" activeCellId="0" sqref="W2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="1" width="10.6888888888889"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="12.6555555555556"/>
-    <col collapsed="false" hidden="false" max="14" min="5" style="1" width="10.6888888888889"/>
-    <col collapsed="false" hidden="false" max="260" min="15" style="1" width="7.95185185185185"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="1" width="11.4592592592593"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="13.5962962962963"/>
+    <col collapsed="false" hidden="false" max="14" min="5" style="1" width="11.4592592592593"/>
+    <col collapsed="false" hidden="false" max="261" min="15" style="1" width="8.46666666666667"/>
+    <col collapsed="false" hidden="false" max="1025" min="262" style="0" width="8.98148148148148"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -377,74 +384,80 @@
       <c r="W1" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="X1" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K2" s="6" t="n">
         <v>42538</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="T2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="V2" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="U2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>39</v>
+      <c r="W2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -471,6 +484,7 @@
       <c r="U3" s="7"/>
       <c r="V3" s="7"/>
       <c r="W3" s="7"/>
+      <c r="X3" s="7"/>
     </row>
     <row r="4" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="7"/>
@@ -496,6 +510,7 @@
       <c r="U4" s="7"/>
       <c r="V4" s="7"/>
       <c r="W4" s="7"/>
+      <c r="X4" s="7"/>
     </row>
     <row r="5" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="7"/>
@@ -521,6 +536,7 @@
       <c r="U5" s="7"/>
       <c r="V5" s="7"/>
       <c r="W5" s="7"/>
+      <c r="X5" s="7"/>
     </row>
     <row r="6" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="7"/>
@@ -546,6 +562,7 @@
       <c r="U6" s="7"/>
       <c r="V6" s="7"/>
       <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
     </row>
     <row r="7" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="7"/>
@@ -571,6 +588,7 @@
       <c r="U7" s="7"/>
       <c r="V7" s="7"/>
       <c r="W7" s="7"/>
+      <c r="X7" s="7"/>
     </row>
     <row r="8" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="7"/>
@@ -596,6 +614,7 @@
       <c r="U8" s="7"/>
       <c r="V8" s="7"/>
       <c r="W8" s="7"/>
+      <c r="X8" s="7"/>
     </row>
     <row r="9" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="7"/>
@@ -621,6 +640,7 @@
       <c r="U9" s="7"/>
       <c r="V9" s="7"/>
       <c r="W9" s="7"/>
+      <c r="X9" s="7"/>
     </row>
     <row r="10" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="7"/>
@@ -646,6 +666,7 @@
       <c r="U10" s="7"/>
       <c r="V10" s="7"/>
       <c r="W10" s="7"/>
+      <c r="X10" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/src/test/resources/erillishaku_oidilla.xlsx
+++ b/src/test/resources/erillishaku_oidilla.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="986" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
   <si>
     <t xml:space="preserve">Sukunimi</t>
   </si>
@@ -61,6 +61,9 @@
     <t xml:space="preserve">Ilmoittautumistila</t>
   </si>
   <si>
+    <t xml:space="preserve">Lukuvuosimaksuvelvollisuus</t>
+  </si>
+  <si>
     <t xml:space="preserve">Julkaistavissa</t>
   </si>
   <si>
@@ -125,6 +128,9 @@
   </si>
   <si>
     <t xml:space="preserve">EI_TEHTY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EI</t>
   </si>
   <si>
     <t xml:space="preserve">JULKAISTAVISSA</t>
@@ -299,19 +305,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:X10"/>
+  <dimension ref="A1:Y10"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="R1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="W2" activeCellId="0" sqref="W2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N3" activeCellId="0" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="1" width="11.4592592592593"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="13.5962962962963"/>
-    <col collapsed="false" hidden="false" max="14" min="5" style="1" width="11.4592592592593"/>
-    <col collapsed="false" hidden="false" max="261" min="15" style="1" width="8.46666666666667"/>
-    <col collapsed="false" hidden="false" max="1025" min="262" style="0" width="8.98148148148148"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="1" width="12.3407407407407"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="14.6740740740741"/>
+    <col collapsed="false" hidden="false" max="15" min="5" style="1" width="12.3407407407407"/>
+    <col collapsed="false" hidden="false" max="262" min="16" style="1" width="9.14444444444444"/>
+    <col collapsed="false" hidden="false" max="1025" min="263" style="0" width="9.75185185185185"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -360,10 +366,10 @@
       <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="3" t="s">
         <v>16</v>
       </c>
       <c r="R1" s="2" t="s">
@@ -387,77 +393,83 @@
       <c r="X1" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="Y1" s="2" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K2" s="6" t="n">
         <v>42538</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="P2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q2" s="3" t="s">
         <v>38</v>
       </c>
+      <c r="R2" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="S2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="T2" s="2" t="s">
         <v>40</v>
       </c>
+      <c r="T2" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="U2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>39</v>
+        <v>42</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="W2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="X2" s="2" t="s">
-        <v>40</v>
+      <c r="X2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -485,6 +497,7 @@
       <c r="V3" s="7"/>
       <c r="W3" s="7"/>
       <c r="X3" s="7"/>
+      <c r="Y3" s="7"/>
     </row>
     <row r="4" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="7"/>
@@ -511,6 +524,7 @@
       <c r="V4" s="7"/>
       <c r="W4" s="7"/>
       <c r="X4" s="7"/>
+      <c r="Y4" s="7"/>
     </row>
     <row r="5" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="7"/>
@@ -537,6 +551,7 @@
       <c r="V5" s="7"/>
       <c r="W5" s="7"/>
       <c r="X5" s="7"/>
+      <c r="Y5" s="7"/>
     </row>
     <row r="6" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="7"/>
@@ -563,6 +578,7 @@
       <c r="V6" s="7"/>
       <c r="W6" s="7"/>
       <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
     </row>
     <row r="7" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="7"/>
@@ -589,6 +605,7 @@
       <c r="V7" s="7"/>
       <c r="W7" s="7"/>
       <c r="X7" s="7"/>
+      <c r="Y7" s="7"/>
     </row>
     <row r="8" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="7"/>
@@ -615,6 +632,7 @@
       <c r="V8" s="7"/>
       <c r="W8" s="7"/>
       <c r="X8" s="7"/>
+      <c r="Y8" s="7"/>
     </row>
     <row r="9" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="7"/>
@@ -641,6 +659,7 @@
       <c r="V9" s="7"/>
       <c r="W9" s="7"/>
       <c r="X9" s="7"/>
+      <c r="Y9" s="7"/>
     </row>
     <row r="10" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="7"/>
@@ -667,6 +686,7 @@
       <c r="V10" s="7"/>
       <c r="W10" s="7"/>
       <c r="X10" s="7"/>
+      <c r="Y10" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -674,7 +694,7 @@
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.5"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter>&amp;L&amp;"Arial,Regular"	&amp;P</oddFooter>

--- a/src/test/resources/erillishaku_oidilla.xlsx
+++ b/src/test/resources/erillishaku_oidilla.xlsx
@@ -1,17 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28016"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tommi.helander/src/oph/valintaperusteet/valintalaskentakoostepalvelu/src/test/resources/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="28260" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -20,171 +30,156 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
-  <si>
-    <t xml:space="preserve">Sukunimi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Etunimi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Henkilötunnus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sähköposti</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Syntymäaika</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sukupuoli</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hakija-oid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Äidinkieli</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hakemuksentila</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hyväksytty Ehdollisesti</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hyväksymiskirje lähetetty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vastaanottotila</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ilmoittautumistila</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lukuvuosimaksuvelvollisuus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Julkaistavissa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asiointikieli</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Puhelinnumero</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Osoite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Postinumero</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Postitoimipaikka</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asuinmaa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kansalaisuus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kotikunta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toisen asteen pohjakoulutus suoritettu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pohjakoulutus maa (toinen aste)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hakkarainen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tuomas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tuomas.hakkarainen@example.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1.1980</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MIES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hakija1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HYVAKSYTTY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ei</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KESKEN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EI_TEHTY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JULKAISTAVISSA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">045123456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Testitie 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Helsinki</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kyllä</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
+  <si>
+    <t>Sukunimi</t>
+  </si>
+  <si>
+    <t>Etunimi</t>
+  </si>
+  <si>
+    <t>Henkilötunnus</t>
+  </si>
+  <si>
+    <t>Sähköposti</t>
+  </si>
+  <si>
+    <t>Syntymäaika</t>
+  </si>
+  <si>
+    <t>Sukupuoli</t>
+  </si>
+  <si>
+    <t>Hakija-oid</t>
+  </si>
+  <si>
+    <t>Äidinkieli</t>
+  </si>
+  <si>
+    <t>Hakemuksentila</t>
+  </si>
+  <si>
+    <t>Hyväksytty Ehdollisesti</t>
+  </si>
+  <si>
+    <t>Hyväksymiskirje lähetetty</t>
+  </si>
+  <si>
+    <t>Vastaanottotila</t>
+  </si>
+  <si>
+    <t>Ilmoittautumistila</t>
+  </si>
+  <si>
+    <t>Lukuvuosimaksuvelvollisuus</t>
+  </si>
+  <si>
+    <t>Julkaistavissa</t>
+  </si>
+  <si>
+    <t>Asiointikieli</t>
+  </si>
+  <si>
+    <t>Puhelinnumero</t>
+  </si>
+  <si>
+    <t>Osoite</t>
+  </si>
+  <si>
+    <t>Postinumero</t>
+  </si>
+  <si>
+    <t>Postitoimipaikka</t>
+  </si>
+  <si>
+    <t>Asuinmaa</t>
+  </si>
+  <si>
+    <t>Kansalaisuus</t>
+  </si>
+  <si>
+    <t>Kotikunta</t>
+  </si>
+  <si>
+    <t>Toisen asteen pohjakoulutus suoritettu</t>
+  </si>
+  <si>
+    <t>Pohjakoulutus maa (toinen aste)</t>
+  </si>
+  <si>
+    <t>Hakkarainen</t>
+  </si>
+  <si>
+    <t>Tuomas</t>
+  </si>
+  <si>
+    <t>tuomas.hakkarainen@example.com</t>
+  </si>
+  <si>
+    <t>1.1.1980</t>
+  </si>
+  <si>
+    <t>MIES</t>
+  </si>
+  <si>
+    <t>hakija1</t>
+  </si>
+  <si>
+    <t>FI</t>
+  </si>
+  <si>
+    <t>HYVAKSYTTY</t>
+  </si>
+  <si>
+    <t>Ei</t>
+  </si>
+  <si>
+    <t>KESKEN</t>
+  </si>
+  <si>
+    <t>EI_TEHTY</t>
+  </si>
+  <si>
+    <t>EI</t>
+  </si>
+  <si>
+    <t>JULKAISTAVISSA</t>
+  </si>
+  <si>
+    <t>045123456</t>
+  </si>
+  <si>
+    <t>Testitie 1</t>
+  </si>
+  <si>
+    <t>00100</t>
+  </si>
+  <si>
+    <t>Helsinki</t>
+  </si>
+  <si>
+    <t>FIN</t>
+  </si>
+  <si>
+    <t>Kyllä</t>
+  </si>
+  <si>
+    <t>Hyväksymisen ehto</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="@"/>
-    <numFmt numFmtId="166" formatCode="0"/>
-    <numFmt numFmtId="167" formatCode="DD/MM/YY"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="Verdana"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -215,112 +210,339 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="8">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="DengXian"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:Y10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z10"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N3" activeCellId="0" sqref="N3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="1" width="12.3407407407407"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="14.6740740740741"/>
-    <col collapsed="false" hidden="false" max="15" min="5" style="1" width="12.3407407407407"/>
-    <col collapsed="false" hidden="false" max="262" min="16" style="1" width="9.14444444444444"/>
-    <col collapsed="false" hidden="false" max="1025" min="263" style="0" width="9.75185185185185"/>
+    <col min="1" max="9" width="8.625" style="1"/>
+    <col min="10" max="10" width="13.5" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.625" style="1" customWidth="1"/>
+    <col min="12" max="26" width="8.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:26" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -352,52 +574,55 @@
         <v>9</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:26" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -426,53 +651,54 @@
       <c r="J2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="K2" s="6" t="n">
+      <c r="K2" s="2"/>
+      <c r="L2" s="6">
         <v>42538</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="R2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="T2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="U2" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="V2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="W2" s="3" t="s">
+      <c r="W2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="X2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="X2" s="3" t="s">
+      <c r="Y2" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="Y2" s="2" t="s">
+      <c r="Z2" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:26" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -498,8 +724,9 @@
       <c r="W3" s="7"/>
       <c r="X3" s="7"/>
       <c r="Y3" s="7"/>
+      <c r="Z3" s="7"/>
     </row>
-    <row r="4" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:26" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -525,8 +752,9 @@
       <c r="W4" s="7"/>
       <c r="X4" s="7"/>
       <c r="Y4" s="7"/>
+      <c r="Z4" s="7"/>
     </row>
-    <row r="5" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:26" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -552,8 +780,9 @@
       <c r="W5" s="7"/>
       <c r="X5" s="7"/>
       <c r="Y5" s="7"/>
+      <c r="Z5" s="7"/>
     </row>
-    <row r="6" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:26" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -579,8 +808,9 @@
       <c r="W6" s="7"/>
       <c r="X6" s="7"/>
       <c r="Y6" s="7"/>
+      <c r="Z6" s="7"/>
     </row>
-    <row r="7" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:26" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
@@ -606,8 +836,9 @@
       <c r="W7" s="7"/>
       <c r="X7" s="7"/>
       <c r="Y7" s="7"/>
+      <c r="Z7" s="7"/>
     </row>
-    <row r="8" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:26" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
@@ -633,8 +864,9 @@
       <c r="W8" s="7"/>
       <c r="X8" s="7"/>
       <c r="Y8" s="7"/>
+      <c r="Z8" s="7"/>
     </row>
-    <row r="9" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:26" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
@@ -660,8 +892,9 @@
       <c r="W9" s="7"/>
       <c r="X9" s="7"/>
       <c r="Y9" s="7"/>
+      <c r="Z9" s="7"/>
     </row>
-    <row r="10" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:26" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -687,16 +920,15 @@
       <c r="W10" s="7"/>
       <c r="X10" s="7"/>
       <c r="Y10" s="7"/>
+      <c r="Z10" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="tuomas.hakkarainen@example.com"/>
+    <hyperlink ref="D2" r:id="rId1"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.5"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.5"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddFooter>&amp;L&amp;"Arial,Regular"	&amp;P</oddFooter>
   </headerFooter>
 </worksheet>

--- a/src/test/resources/erillishaku_oidilla.xlsx
+++ b/src/test/resources/erillishaku_oidilla.xlsx
@@ -1,36 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28016"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tommi.helander/src/oph/valintaperusteet/valintalaskentakoostepalvelu/src/test/resources/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="28260" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="48">
   <si>
     <t>Sukunimi</t>
   </si>
@@ -62,6 +43,18 @@
     <t>Hyväksytty Ehdollisesti</t>
   </si>
   <si>
+    <t>Hyväksymisen ehto</t>
+  </si>
+  <si>
+    <t>Hyväksymisen ehto FI</t>
+  </si>
+  <si>
+    <t>Hyväksymisen ehto SV</t>
+  </si>
+  <si>
+    <t>Hyväksymisen ehto EN</t>
+  </si>
+  <si>
     <t>Hyväksymiskirje lähetetty</t>
   </si>
   <si>
@@ -113,7 +106,14 @@
     <t>Tuomas</t>
   </si>
   <si>
-    <t>tuomas.hakkarainen@example.com</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>tuomas.hakkarainen@example.com</t>
+    </r>
   </si>
   <si>
     <t>1.1.1980</t>
@@ -162,51 +162,60 @@
   </si>
   <si>
     <t>Kyllä</t>
-  </si>
-  <si>
-    <t>Hyväksymisen ehto</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="59" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="12"/>
+      <color indexed="8"/>
       <name val="Verdana"/>
-      <family val="2"/>
-      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color indexed="8"/>
+      <name val="Verdana"/>
     </font>
     <font>
       <sz val="11"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color indexed="10"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor auto="1"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -219,67 +228,89 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="8"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="8"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="8"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="8">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="59" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffff0000"/>
+      <rgbColor rgb="ff00ff00"/>
+      <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="ffffff00"/>
+      <rgbColor rgb="ffff00ff"/>
+      <rgbColor rgb="ff00ffff"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ff0000ff"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office Theme">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="A7A7A7"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="535353"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="4472C4"/>
@@ -300,85 +331,25 @@
         <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="FF00FF"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office Theme">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:latin typeface="Helvetica"/>
+        <a:ea typeface="Helvetica"/>
+        <a:cs typeface="Helvetica"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:latin typeface="Helvetica"/>
+        <a:ea typeface="Helvetica"/>
+        <a:cs typeface="Helvetica"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office Theme">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -387,76 +358,66 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
+                <a:tint val="100000"/>
                 <a:shade val="100000"/>
+                <a:satMod val="129999"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="104999"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
@@ -467,238 +428,1137 @@
           <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </a:spPr>
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+        <a:spAutoFit/>
+      </a:bodyPr>
+      <a:lstStyle>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+            <a:sym typeface="Calibri"/>
+          </a:defRPr>
+        </a:defPPr>
+        <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl1pPr>
+        <a:lvl2pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl2pPr>
+        <a:lvl3pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl3pPr>
+        <a:lvl4pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl4pPr>
+        <a:lvl5pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl5pPr>
+        <a:lvl6pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl6pPr>
+        <a:lvl7pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl7pPr>
+        <a:lvl8pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl8pPr>
+        <a:lvl9pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl9pPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="none"/>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </a:spPr>
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+        <a:noAutofit/>
+      </a:bodyPr>
+      <a:lstStyle>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:defPPr>
+        <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl1pPr>
+        <a:lvl2pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl2pPr>
+        <a:lvl3pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl3pPr>
+        <a:lvl4pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl4pPr>
+        <a:lvl5pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl5pPr>
+        <a:lvl6pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl6pPr>
+        <a:lvl7pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl7pPr>
+        <a:lvl8pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl8pPr>
+        <a:lvl9pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl9pPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="none"/>
+      </a:style>
+    </a:lnDef>
+    <a:txDef>
+      <a:spPr>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </a:spPr>
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+        <a:spAutoFit/>
+      </a:bodyPr>
+      <a:lstStyle>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+            <a:sym typeface="Calibri"/>
+          </a:defRPr>
+        </a:defPPr>
+        <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl1pPr>
+        <a:lvl2pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl2pPr>
+        <a:lvl3pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl3pPr>
+        <a:lvl4pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl4pPr>
+        <a:lvl5pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl5pPr>
+        <a:lvl6pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl6pPr>
+        <a:lvl7pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl7pPr>
+        <a:lvl8pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl8pPr>
+        <a:lvl9pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl9pPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="none"/>
+      </a:style>
+    </a:txDef>
+  </a:objectDefaults>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z10"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:AC10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="9" width="8.625" style="1"/>
+    <col min="1" max="1" width="8.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.625" style="1" customWidth="1"/>
     <col min="10" max="10" width="13.5" style="1" customWidth="1"/>
     <col min="11" max="11" width="15.625" style="1" customWidth="1"/>
-    <col min="12" max="26" width="8.625" style="1"/>
+    <col min="12" max="12" width="8.625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="8.625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="8.625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="8.625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="8.625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="8.625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="8.625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="8.625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="8.625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="8.625" style="1" customWidth="1"/>
+    <col min="22" max="22" width="8.625" style="1" customWidth="1"/>
+    <col min="23" max="23" width="8.625" style="1" customWidth="1"/>
+    <col min="24" max="24" width="8.625" style="1" customWidth="1"/>
+    <col min="25" max="25" width="8.625" style="1" customWidth="1"/>
+    <col min="26" max="26" width="8.625" style="1" customWidth="1"/>
+    <col min="27" max="27" width="8.625" style="1" customWidth="1"/>
+    <col min="28" max="28" width="8.625" style="1" customWidth="1"/>
+    <col min="29" max="29" width="8.625" style="1" customWidth="1"/>
+    <col min="30" max="256" width="8.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" ht="17" customHeight="1">
+      <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s" s="2">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s" s="2">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s" s="2">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" t="s" s="2">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" t="s" s="2">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" t="s" s="2">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" t="s" s="2">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" t="s" s="2">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" t="s" s="2">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" ht="17" customHeight="1">
+      <c r="A2" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" t="s" s="4">
+        <v>31</v>
+      </c>
+      <c r="E2" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="F2" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="G2" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="H2" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="I2" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J2" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K2" s="5"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6">
+        <v>42538</v>
+      </c>
+      <c r="P2" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q2" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R2" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S2" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T2" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="U2" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V2" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W2" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>24</v>
+      <c r="X2" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y2" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Z2" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA2" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB2" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AC2" t="s" s="2">
+        <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K2" s="2"/>
-      <c r="L2" s="6">
-        <v>42538</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="X2" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y2" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" ht="19" customHeight="1">
       <c r="A3" s="7"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -725,8 +1585,11 @@
       <c r="X3" s="7"/>
       <c r="Y3" s="7"/>
       <c r="Z3" s="7"/>
+      <c r="AA3" s="7"/>
+      <c r="AB3" s="7"/>
+      <c r="AC3" s="7"/>
     </row>
-    <row r="4" spans="1:26" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" ht="19" customHeight="1">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -753,8 +1616,11 @@
       <c r="X4" s="7"/>
       <c r="Y4" s="7"/>
       <c r="Z4" s="7"/>
+      <c r="AA4" s="7"/>
+      <c r="AB4" s="7"/>
+      <c r="AC4" s="7"/>
     </row>
-    <row r="5" spans="1:26" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" ht="19" customHeight="1">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -781,8 +1647,11 @@
       <c r="X5" s="7"/>
       <c r="Y5" s="7"/>
       <c r="Z5" s="7"/>
+      <c r="AA5" s="7"/>
+      <c r="AB5" s="7"/>
+      <c r="AC5" s="7"/>
     </row>
-    <row r="6" spans="1:26" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" ht="19" customHeight="1">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -809,8 +1678,11 @@
       <c r="X6" s="7"/>
       <c r="Y6" s="7"/>
       <c r="Z6" s="7"/>
+      <c r="AA6" s="7"/>
+      <c r="AB6" s="7"/>
+      <c r="AC6" s="7"/>
     </row>
-    <row r="7" spans="1:26" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" ht="19" customHeight="1">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
@@ -837,8 +1709,11 @@
       <c r="X7" s="7"/>
       <c r="Y7" s="7"/>
       <c r="Z7" s="7"/>
+      <c r="AA7" s="7"/>
+      <c r="AB7" s="7"/>
+      <c r="AC7" s="7"/>
     </row>
-    <row r="8" spans="1:26" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" ht="19" customHeight="1">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
@@ -865,8 +1740,11 @@
       <c r="X8" s="7"/>
       <c r="Y8" s="7"/>
       <c r="Z8" s="7"/>
+      <c r="AA8" s="7"/>
+      <c r="AB8" s="7"/>
+      <c r="AC8" s="7"/>
     </row>
-    <row r="9" spans="1:26" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" ht="19" customHeight="1">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
@@ -893,8 +1771,11 @@
       <c r="X9" s="7"/>
       <c r="Y9" s="7"/>
       <c r="Z9" s="7"/>
+      <c r="AA9" s="7"/>
+      <c r="AB9" s="7"/>
+      <c r="AC9" s="7"/>
     </row>
-    <row r="10" spans="1:26" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" ht="19" customHeight="1">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -921,15 +1802,18 @@
       <c r="X10" s="7"/>
       <c r="Y10" s="7"/>
       <c r="Z10" s="7"/>
+      <c r="AA10" s="7"/>
+      <c r="AB10" s="7"/>
+      <c r="AC10" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D2" r:id="rId1" location="" tooltip="" display=""/>
   </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.5"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511806" footer="0.5"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
-    <oddFooter>&amp;L&amp;"Arial,Regular"	&amp;P</oddFooter>
+    <oddFooter>&amp;L&amp;"Arial,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/src/test/resources/erillishaku_oidilla.xlsx
+++ b/src/test/resources/erillishaku_oidilla.xlsx
@@ -1,17 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
+  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="40" windowWidth="46600" windowHeight="16540"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0" iterateDelta="1E-4" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
   <si>
     <t>Sukunimi</t>
   </si>
@@ -163,28 +171,17 @@
   <si>
     <t>Kyllä</t>
   </si>
+  <si>
+    <t>Maksun tila</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="59" formatCode="dd/mm/yy"/>
-  </numFmts>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Verdana"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="15"/>
       <color indexed="8"/>
       <name val="Verdana"/>
     </font>
@@ -243,61 +240,102 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="8">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="59" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium4"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="001FB714"/>
+      <rgbColor rgb="000000D4"/>
+      <rgbColor rgb="00FCF305"/>
+      <rgbColor rgb="00F20884"/>
+      <rgbColor rgb="0000ABEA"/>
+      <rgbColor rgb="00900000"/>
+      <rgbColor rgb="00006411"/>
+      <rgbColor rgb="00000090"/>
+      <rgbColor rgb="0090713A"/>
+      <rgbColor rgb="004600A5"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="0063AAFE"/>
+      <rgbColor rgb="00DD2D32"/>
+      <rgbColor rgb="00FFF58C"/>
+      <rgbColor rgb="004EE257"/>
+      <rgbColor rgb="006711FF"/>
+      <rgbColor rgb="00FEA746"/>
+      <rgbColor rgb="00865357"/>
+      <rgbColor rgb="00A2BD90"/>
+      <rgbColor rgb="0063AAFE"/>
+      <rgbColor rgb="00DD2D32"/>
+      <rgbColor rgb="00FFF58C"/>
+      <rgbColor rgb="004EE257"/>
+      <rgbColor rgb="006711FF"/>
+      <rgbColor rgb="00FEA746"/>
+      <rgbColor rgb="00865357"/>
+      <rgbColor rgb="00A2BD90"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office Theme">
       <a:dk1>
@@ -499,7 +537,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -518,7 +556,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -548,7 +586,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -574,7 +612,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -600,7 +638,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -626,7 +664,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -652,7 +690,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -678,7 +716,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -704,7 +742,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -730,7 +768,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -756,7 +794,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -769,9 +807,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -788,7 +832,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -807,7 +851,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -833,7 +877,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -859,7 +903,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -885,7 +929,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -911,7 +955,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -937,7 +981,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -963,7 +1007,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -989,7 +1033,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1015,7 +1059,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1041,7 +1085,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1054,9 +1098,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1070,7 +1120,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1089,7 +1139,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1119,7 +1169,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1145,7 +1195,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1171,7 +1221,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1197,7 +1247,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1223,7 +1273,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1249,7 +1299,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1275,7 +1325,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1301,7 +1351,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1327,7 +1377,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1340,172 +1390,158 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AC10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IW10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="8.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.625" style="1" customWidth="1"/>
+    <col min="1" max="9" width="8.625" style="1" customWidth="1"/>
     <col min="10" max="10" width="13.5" style="1" customWidth="1"/>
     <col min="11" max="11" width="15.625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="8.625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="8.625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="8.625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="8.625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="8.625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="8.625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="8.625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="8.625" style="1" customWidth="1"/>
-    <col min="20" max="20" width="8.625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="8.625" style="1" customWidth="1"/>
-    <col min="22" max="22" width="8.625" style="1" customWidth="1"/>
-    <col min="23" max="23" width="8.625" style="1" customWidth="1"/>
-    <col min="24" max="24" width="8.625" style="1" customWidth="1"/>
-    <col min="25" max="25" width="8.625" style="1" customWidth="1"/>
-    <col min="26" max="26" width="8.625" style="1" customWidth="1"/>
-    <col min="27" max="27" width="8.625" style="1" customWidth="1"/>
-    <col min="28" max="28" width="8.625" style="1" customWidth="1"/>
-    <col min="29" max="29" width="8.625" style="1" customWidth="1"/>
-    <col min="30" max="256" width="8.625" style="1" customWidth="1"/>
+    <col min="12" max="257" width="8.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:30" ht="17" customHeight="1">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s" s="2">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s" s="2">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s" s="2">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s" s="2">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s" s="2">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s" s="2">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s" s="2">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s" s="2">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s" s="2">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s" s="2">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s" s="2">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s" s="2">
+      <c r="S1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="T1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s" s="2">
+      <c r="U1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s" s="2">
+      <c r="V1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s" s="2">
+      <c r="W1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s" s="2">
+      <c r="X1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s" s="2">
+      <c r="Y1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s" s="2">
+      <c r="Z1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s" s="2">
+      <c r="AA1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s" s="2">
+      <c r="AB1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s" s="2">
+      <c r="AC1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s" s="2">
+      <c r="AD1" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" ht="17" customHeight="1">
-      <c r="A2" t="s" s="2">
+    <row r="2" spans="1:30" ht="17" customHeight="1">
+      <c r="A2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B2" t="s" s="2">
+      <c r="B2" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C2" s="3"/>
-      <c r="D2" t="s" s="4">
+      <c r="D2" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E2" t="s" s="2">
+      <c r="E2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F2" t="s" s="2">
+      <c r="F2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G2" t="s" s="2">
+      <c r="G2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H2" t="s" s="2">
+      <c r="H2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I2" t="s" s="2">
+      <c r="I2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="J2" t="s" s="2">
+      <c r="J2" s="2" t="s">
         <v>37</v>
       </c>
       <c r="K2" s="5"/>
@@ -1515,50 +1551,51 @@
       <c r="O2" s="6">
         <v>42538</v>
       </c>
-      <c r="P2" t="s" s="2">
+      <c r="P2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="Q2" t="s" s="2">
+      <c r="Q2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="R2" t="s" s="2">
+      <c r="R2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="S2" t="s" s="2">
+      <c r="S2" s="2"/>
+      <c r="T2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="T2" t="s" s="2">
+      <c r="U2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="U2" t="s" s="2">
+      <c r="V2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="V2" t="s" s="2">
+      <c r="W2" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="W2" t="s" s="2">
+      <c r="X2" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="X2" t="s" s="2">
+      <c r="Y2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="Y2" t="s" s="2">
+      <c r="Z2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="Z2" t="s" s="2">
+      <c r="AA2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AA2" t="s" s="2">
+      <c r="AB2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AB2" t="s" s="2">
+      <c r="AC2" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AC2" t="s" s="2">
+      <c r="AD2" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="3" ht="19" customHeight="1">
+    <row r="3" spans="1:30" ht="19" customHeight="1">
       <c r="A3" s="7"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -1588,8 +1625,9 @@
       <c r="AA3" s="7"/>
       <c r="AB3" s="7"/>
       <c r="AC3" s="7"/>
+      <c r="AD3" s="7"/>
     </row>
-    <row r="4" ht="19" customHeight="1">
+    <row r="4" spans="1:30" ht="19" customHeight="1">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -1619,8 +1657,9 @@
       <c r="AA4" s="7"/>
       <c r="AB4" s="7"/>
       <c r="AC4" s="7"/>
+      <c r="AD4" s="7"/>
     </row>
-    <row r="5" ht="19" customHeight="1">
+    <row r="5" spans="1:30" ht="19" customHeight="1">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -1650,8 +1689,9 @@
       <c r="AA5" s="7"/>
       <c r="AB5" s="7"/>
       <c r="AC5" s="7"/>
+      <c r="AD5" s="7"/>
     </row>
-    <row r="6" ht="19" customHeight="1">
+    <row r="6" spans="1:30" ht="19" customHeight="1">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -1681,8 +1721,9 @@
       <c r="AA6" s="7"/>
       <c r="AB6" s="7"/>
       <c r="AC6" s="7"/>
+      <c r="AD6" s="7"/>
     </row>
-    <row r="7" ht="19" customHeight="1">
+    <row r="7" spans="1:30" ht="19" customHeight="1">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
@@ -1712,8 +1753,9 @@
       <c r="AA7" s="7"/>
       <c r="AB7" s="7"/>
       <c r="AC7" s="7"/>
+      <c r="AD7" s="7"/>
     </row>
-    <row r="8" ht="19" customHeight="1">
+    <row r="8" spans="1:30" ht="19" customHeight="1">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
@@ -1743,8 +1785,9 @@
       <c r="AA8" s="7"/>
       <c r="AB8" s="7"/>
       <c r="AC8" s="7"/>
+      <c r="AD8" s="7"/>
     </row>
-    <row r="9" ht="19" customHeight="1">
+    <row r="9" spans="1:30" ht="19" customHeight="1">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
@@ -1774,8 +1817,9 @@
       <c r="AA9" s="7"/>
       <c r="AB9" s="7"/>
       <c r="AC9" s="7"/>
+      <c r="AD9" s="7"/>
     </row>
-    <row r="10" ht="19" customHeight="1">
+    <row r="10" spans="1:30" ht="19" customHeight="1">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -1805,15 +1849,21 @@
       <c r="AA10" s="7"/>
       <c r="AB10" s="7"/>
       <c r="AC10" s="7"/>
+      <c r="AD10" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" location="" tooltip="" display=""/>
+    <hyperlink ref="D2" r:id="rId1"/>
   </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511806" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180599999999998" footer="0.5"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;"Arial,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
   </headerFooter>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/src/test/resources/erillishaku_oidilla.xlsx
+++ b/src/test/resources/erillishaku_oidilla.xlsx
@@ -1,16 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28615"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/terip1/IdeaProjects/Opetushallitus/valintaperusteet/valintalaskentakoostepalvelu/src/test/resources/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="46600" windowHeight="16540"/>
+    <workbookView xWindow="33000" yWindow="3480" windowWidth="28800" windowHeight="16060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -124,9 +132,6 @@
     </r>
   </si>
   <si>
-    <t>1.1.1980</t>
-  </si>
-  <si>
     <t>MIES</t>
   </si>
   <si>
@@ -173,6 +178,9 @@
   </si>
   <si>
     <t>Maksun tila</t>
+  </si>
+  <si>
+    <t>01.01.1980</t>
   </si>
 </sst>
 </file>
@@ -331,6 +339,11 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1409,21 +1422,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IW10"/>
+  <dimension ref="A1:AD10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="9" width="8.625" style="1" customWidth="1"/>
     <col min="10" max="10" width="13.5" style="1" customWidth="1"/>
     <col min="11" max="11" width="15.625" style="1" customWidth="1"/>
-    <col min="12" max="257" width="8.625" style="1" customWidth="1"/>
+    <col min="12" max="30" width="8.625" style="1" customWidth="1"/>
+    <col min="31" max="257" width="8.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="17" customHeight="1">
+    <row r="1" spans="1:30" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1479,7 +1493,7 @@
         <v>17</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="T1" s="2" t="s">
         <v>18</v>
@@ -1515,7 +1529,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:30" ht="17" customHeight="1">
+    <row r="2" spans="1:30" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>29</v>
       </c>
@@ -1527,22 +1541,22 @@
         <v>31</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="K2" s="5"/>
       <c r="L2" s="6"/>
@@ -1552,50 +1566,50 @@
         <v>42538</v>
       </c>
       <c r="P2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="S2" s="2"/>
       <c r="T2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="V2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="U2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="V2" s="2" t="s">
+      <c r="W2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="X2" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="Y2" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="Y2" s="2" t="s">
+      <c r="Z2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="Z2" s="2" t="s">
+      <c r="AA2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AA2" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB2" s="2" t="s">
+      <c r="AD2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AC2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>46</v>
-      </c>
     </row>
-    <row r="3" spans="1:30" ht="19" customHeight="1">
+    <row r="3" spans="1:30" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -1627,7 +1641,7 @@
       <c r="AC3" s="7"/>
       <c r="AD3" s="7"/>
     </row>
-    <row r="4" spans="1:30" ht="19" customHeight="1">
+    <row r="4" spans="1:30" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -1659,7 +1673,7 @@
       <c r="AC4" s="7"/>
       <c r="AD4" s="7"/>
     </row>
-    <row r="5" spans="1:30" ht="19" customHeight="1">
+    <row r="5" spans="1:30" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -1691,7 +1705,7 @@
       <c r="AC5" s="7"/>
       <c r="AD5" s="7"/>
     </row>
-    <row r="6" spans="1:30" ht="19" customHeight="1">
+    <row r="6" spans="1:30" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -1723,7 +1737,7 @@
       <c r="AC6" s="7"/>
       <c r="AD6" s="7"/>
     </row>
-    <row r="7" spans="1:30" ht="19" customHeight="1">
+    <row r="7" spans="1:30" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
@@ -1755,7 +1769,7 @@
       <c r="AC7" s="7"/>
       <c r="AD7" s="7"/>
     </row>
-    <row r="8" spans="1:30" ht="19" customHeight="1">
+    <row r="8" spans="1:30" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
@@ -1787,7 +1801,7 @@
       <c r="AC8" s="7"/>
       <c r="AD8" s="7"/>
     </row>
-    <row r="9" spans="1:30" ht="19" customHeight="1">
+    <row r="9" spans="1:30" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
@@ -1819,7 +1833,7 @@
       <c r="AC9" s="7"/>
       <c r="AD9" s="7"/>
     </row>
-    <row r="10" spans="1:30" ht="19" customHeight="1">
+    <row r="10" spans="1:30" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -1860,10 +1874,5 @@
   <headerFooter>
     <oddFooter>&amp;L&amp;"Arial,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
   </headerFooter>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/src/test/resources/erillishaku_oidilla.xlsx
+++ b/src/test/resources/erillishaku_oidilla.xlsx
@@ -1,33 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28615"/>
-  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/terip1/IdeaProjects/Opetushallitus/valintaperusteet/valintalaskentakoostepalvelu/src/test/resources/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookViews>
-    <workbookView xWindow="33000" yWindow="3480" windowWidth="28800" windowHeight="16060"/>
+    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
   <si>
     <t>Sukunimi</t>
   </si>
@@ -83,6 +67,9 @@
     <t>Lukuvuosimaksuvelvollisuus</t>
   </si>
   <si>
+    <t>Maksun tila</t>
+  </si>
+  <si>
     <t>Julkaistavissa</t>
   </si>
   <si>
@@ -114,6 +101,24 @@
   </si>
   <si>
     <t>Pohjakoulutus maa (toinen aste)</t>
+  </si>
+  <si>
+    <t>Kutsumanimi</t>
+  </si>
+  <si>
+    <t>Syntymäpaikka</t>
+  </si>
+  <si>
+    <t>Passin numero</t>
+  </si>
+  <si>
+    <t>Kansallinen ID-tunnus</t>
+  </si>
+  <si>
+    <t>Kaupunki ja maa</t>
+  </si>
+  <si>
+    <t>Hakemus-oid</t>
   </si>
   <si>
     <t>Hakkarainen</t>
@@ -132,10 +137,13 @@
     </r>
   </si>
   <si>
+    <t>01.01.1980</t>
+  </si>
+  <si>
     <t>MIES</t>
   </si>
   <si>
-    <t>hakija1</t>
+    <t>Hakijaoid1</t>
   </si>
   <si>
     <t>FI</t>
@@ -177,21 +185,31 @@
     <t>Kyllä</t>
   </si>
   <si>
-    <t>Maksun tila</t>
-  </si>
-  <si>
-    <t>01.01.1980</t>
+    <t>Hakemus1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="0" formatCode="General"/>
+  </numFmts>
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Verdana"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <sz val="11"/>
@@ -248,107 +266,61 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="8">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium4"/>
+  <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="001FB714"/>
-      <rgbColor rgb="000000D4"/>
-      <rgbColor rgb="00FCF305"/>
-      <rgbColor rgb="00F20884"/>
-      <rgbColor rgb="0000ABEA"/>
-      <rgbColor rgb="00900000"/>
-      <rgbColor rgb="00006411"/>
-      <rgbColor rgb="00000090"/>
-      <rgbColor rgb="0090713A"/>
-      <rgbColor rgb="004600A5"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="0063AAFE"/>
-      <rgbColor rgb="00DD2D32"/>
-      <rgbColor rgb="00FFF58C"/>
-      <rgbColor rgb="004EE257"/>
-      <rgbColor rgb="006711FF"/>
-      <rgbColor rgb="00FEA746"/>
-      <rgbColor rgb="00865357"/>
-      <rgbColor rgb="00A2BD90"/>
-      <rgbColor rgb="0063AAFE"/>
-      <rgbColor rgb="00DD2D32"/>
-      <rgbColor rgb="00FFF58C"/>
-      <rgbColor rgb="004EE257"/>
-      <rgbColor rgb="006711FF"/>
-      <rgbColor rgb="00FEA746"/>
-      <rgbColor rgb="00865357"/>
-      <rgbColor rgb="00A2BD90"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffff0000"/>
+      <rgbColor rgb="ff00ff00"/>
+      <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="ffffff00"/>
+      <rgbColor rgb="ffff00ff"/>
+      <rgbColor rgb="ff00ffff"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ff0000ff"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office Theme">
       <a:dk1>
@@ -390,14 +362,14 @@
     </a:clrScheme>
     <a:fontScheme name="Office Theme">
       <a:majorFont>
-        <a:latin typeface="Helvetica"/>
-        <a:ea typeface="Helvetica"/>
-        <a:cs typeface="Helvetica"/>
+        <a:latin typeface="Helvetica Neue"/>
+        <a:ea typeface="Helvetica Neue"/>
+        <a:cs typeface="Helvetica Neue"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Helvetica"/>
-        <a:ea typeface="Helvetica"/>
-        <a:cs typeface="Helvetica"/>
+        <a:latin typeface="Helvetica Neue"/>
+        <a:ea typeface="Helvetica Neue"/>
+        <a:cs typeface="Helvetica Neue"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office Theme">
@@ -540,17 +512,17 @@
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -569,19 +541,19 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="Helvetica"/>
+            <a:ea typeface="Helvetica"/>
+            <a:cs typeface="Helvetica"/>
+            <a:sym typeface="Helvetica"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -599,7 +571,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -625,7 +597,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -651,7 +623,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -677,7 +649,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -703,7 +675,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -729,7 +701,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -755,7 +727,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -781,7 +753,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -807,7 +779,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -820,32 +792,26 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -864,7 +830,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -890,7 +856,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -916,7 +882,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -942,7 +908,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -968,7 +934,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -994,7 +960,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1020,7 +986,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1046,7 +1012,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1072,7 +1038,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1098,7 +1064,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1111,15 +1077,9 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1133,7 +1093,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1152,19 +1112,19 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="Helvetica"/>
+            <a:ea typeface="Helvetica"/>
+            <a:cs typeface="Helvetica"/>
+            <a:sym typeface="Helvetica"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1182,7 +1142,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1208,7 +1168,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1234,7 +1194,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1260,7 +1220,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1286,7 +1246,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1312,7 +1272,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1338,7 +1298,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1364,7 +1324,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1390,7 +1350,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1403,160 +1363,169 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD10"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:AJ10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="9" width="8.625" style="1" customWidth="1"/>
     <col min="10" max="10" width="13.5" style="1" customWidth="1"/>
     <col min="11" max="11" width="15.625" style="1" customWidth="1"/>
-    <col min="12" max="30" width="8.625" style="1" customWidth="1"/>
-    <col min="31" max="257" width="8.625" customWidth="1"/>
+    <col min="12" max="36" width="8.625" style="1" customWidth="1"/>
+    <col min="37" max="16384" width="8.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" ht="17" customHeight="1">
+      <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s" s="2">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s" s="2">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s" s="2">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" t="s" s="2">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" t="s" s="2">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" t="s" s="2">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" t="s" s="2">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" t="s" s="2">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" t="s" s="2">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" t="s" s="2">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" t="s" s="2">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" t="s" s="2">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" t="s" s="2">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" t="s" s="2">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" t="s" s="2">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" t="s" s="2">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="T1" s="2" t="s">
+      <c r="S1" t="s" s="2">
         <v>18</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="T1" t="s" s="2">
         <v>19</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="U1" t="s" s="2">
         <v>20</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="V1" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="W1" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="X1" t="s" s="2">
         <v>23</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="Y1" t="s" s="2">
         <v>24</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="Z1" t="s" s="2">
         <v>25</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AA1" t="s" s="2">
         <v>26</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AB1" t="s" s="2">
         <v>27</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AC1" t="s" s="2">
         <v>28</v>
       </c>
+      <c r="AD1" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s" s="2">
+        <v>35</v>
+      </c>
     </row>
-    <row r="2" spans="1:30" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>30</v>
+    <row r="2" ht="17" customHeight="1">
+      <c r="A2" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>37</v>
       </c>
       <c r="C2" s="3"/>
-      <c r="D2" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>36</v>
+      <c r="D2" t="s" s="4">
+        <v>38</v>
+      </c>
+      <c r="E2" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F2" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="G2" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H2" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I2" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J2" t="s" s="2">
+        <v>44</v>
       </c>
       <c r="K2" s="5"/>
       <c r="L2" s="6"/>
@@ -1565,51 +1534,61 @@
       <c r="O2" s="6">
         <v>42538</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="P2" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Q2" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="R2" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="S2" s="2"/>
+      <c r="T2" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="U2" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V2" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="W2" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="X2" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="Y2" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="Z2" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AA2" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AB2" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AC2" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="AD2" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AE2" t="s" s="2">
         <v>37</v>
       </c>
-      <c r="Q2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC2" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>45</v>
+      <c r="AF2" s="2"/>
+      <c r="AG2" s="2"/>
+      <c r="AH2" s="2"/>
+      <c r="AI2" s="2"/>
+      <c r="AJ2" t="s" s="2">
+        <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:30" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" ht="19" customHeight="1">
       <c r="A3" s="7"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -1640,8 +1619,14 @@
       <c r="AB3" s="7"/>
       <c r="AC3" s="7"/>
       <c r="AD3" s="7"/>
+      <c r="AE3" s="7"/>
+      <c r="AF3" s="7"/>
+      <c r="AG3" s="7"/>
+      <c r="AH3" s="7"/>
+      <c r="AI3" s="7"/>
+      <c r="AJ3" s="7"/>
     </row>
-    <row r="4" spans="1:30" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" ht="19" customHeight="1">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -1672,8 +1657,14 @@
       <c r="AB4" s="7"/>
       <c r="AC4" s="7"/>
       <c r="AD4" s="7"/>
+      <c r="AE4" s="7"/>
+      <c r="AF4" s="7"/>
+      <c r="AG4" s="7"/>
+      <c r="AH4" s="7"/>
+      <c r="AI4" s="7"/>
+      <c r="AJ4" s="7"/>
     </row>
-    <row r="5" spans="1:30" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" ht="19" customHeight="1">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -1704,8 +1695,14 @@
       <c r="AB5" s="7"/>
       <c r="AC5" s="7"/>
       <c r="AD5" s="7"/>
+      <c r="AE5" s="7"/>
+      <c r="AF5" s="7"/>
+      <c r="AG5" s="7"/>
+      <c r="AH5" s="7"/>
+      <c r="AI5" s="7"/>
+      <c r="AJ5" s="7"/>
     </row>
-    <row r="6" spans="1:30" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" ht="19" customHeight="1">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -1736,8 +1733,14 @@
       <c r="AB6" s="7"/>
       <c r="AC6" s="7"/>
       <c r="AD6" s="7"/>
+      <c r="AE6" s="7"/>
+      <c r="AF6" s="7"/>
+      <c r="AG6" s="7"/>
+      <c r="AH6" s="7"/>
+      <c r="AI6" s="7"/>
+      <c r="AJ6" s="7"/>
     </row>
-    <row r="7" spans="1:30" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" ht="19" customHeight="1">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
@@ -1768,8 +1771,14 @@
       <c r="AB7" s="7"/>
       <c r="AC7" s="7"/>
       <c r="AD7" s="7"/>
+      <c r="AE7" s="7"/>
+      <c r="AF7" s="7"/>
+      <c r="AG7" s="7"/>
+      <c r="AH7" s="7"/>
+      <c r="AI7" s="7"/>
+      <c r="AJ7" s="7"/>
     </row>
-    <row r="8" spans="1:30" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" ht="19" customHeight="1">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
@@ -1800,8 +1809,14 @@
       <c r="AB8" s="7"/>
       <c r="AC8" s="7"/>
       <c r="AD8" s="7"/>
+      <c r="AE8" s="7"/>
+      <c r="AF8" s="7"/>
+      <c r="AG8" s="7"/>
+      <c r="AH8" s="7"/>
+      <c r="AI8" s="7"/>
+      <c r="AJ8" s="7"/>
     </row>
-    <row r="9" spans="1:30" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" ht="19" customHeight="1">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
@@ -1832,8 +1847,14 @@
       <c r="AB9" s="7"/>
       <c r="AC9" s="7"/>
       <c r="AD9" s="7"/>
+      <c r="AE9" s="7"/>
+      <c r="AF9" s="7"/>
+      <c r="AG9" s="7"/>
+      <c r="AH9" s="7"/>
+      <c r="AI9" s="7"/>
+      <c r="AJ9" s="7"/>
     </row>
-    <row r="10" spans="1:30" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" ht="19" customHeight="1">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -1864,13 +1885,19 @@
       <c r="AB10" s="7"/>
       <c r="AC10" s="7"/>
       <c r="AD10" s="7"/>
+      <c r="AE10" s="7"/>
+      <c r="AF10" s="7"/>
+      <c r="AG10" s="7"/>
+      <c r="AH10" s="7"/>
+      <c r="AI10" s="7"/>
+      <c r="AJ10" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D2" r:id="rId1" location="" tooltip="" display="tuomas.hakkarainen@example.com"/>
   </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180599999999998" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511806" footer="0.5"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;"Arial,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
   </headerFooter>
